--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/37_Hatay_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/37_Hatay_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C20ACE-C86D-4687-BE4B-0F5E310228D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62DE72D4-CF78-407F-A732-252EE29ADD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7776F422-50E2-4B5D-9F2D-6BA4B5C56111}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4F4C317-A413-4538-807C-E793D3A8BB0D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{47BD0309-2504-4DEE-B273-F75D8D3E4AAB}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{A29403C1-91A9-44F6-BB12-AC91AF615195}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{0F419C74-D942-4BEF-8A9A-33E1A2072204}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{99CE3BEE-20A7-4E6B-B0A1-70BDC73B9E18}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{52C32A61-98D4-4A22-BC84-21B221D43F1C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{37A58D88-0BD4-4783-B729-AD8DF292F86D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{1870975F-8DDF-4194-8405-FA93CCE71970}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{F0895451-BAD9-441C-B0B6-44190178F1DE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642AA373-8370-43D7-BAEE-44C6D1D6EE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCB0D8C-C109-4BEB-9340-C0F9C53452DB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2485,18 +2485,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1A83EC9C-0317-4955-BAC7-2C283E433388}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BF0E3045-B054-4DD7-822D-8AF33330BE12}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{854B9AC6-49DA-41A6-87FD-B918ACB40AA1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{23EAC75B-3CE3-47F2-87C5-292C2AD98900}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{87B612D9-6988-454E-9C12-016BDB54417A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{17ACBF66-17E1-4488-B94E-778BD1892F5B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B01A0CBE-4AF3-44E3-BF51-D654F9108830}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{64B4FEC6-B499-4331-B68F-5427BD18115B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{807894BF-7816-4A23-AFCE-18057962B1BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{99E90F97-8A0A-425C-BBAA-8DEA27793E73}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9FBB4283-84E5-4E60-A33B-DD70B28084E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E6123A78-A54B-475C-960C-2E2EE0E9C978}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3310FA6C-A352-4909-938C-138FB7303620}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{89596E33-693F-409B-8724-83D9A4152CC3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C0114A4A-86B2-42FD-9FAF-62887EEF7830}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6303AB44-4B53-4E03-BA0C-45A8A49C46A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7B563AE8-9C93-402E-A9D5-2EF45AE597A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8CA8AB29-010A-4257-BF5D-B7C9952C5C34}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7D7D457D-C3CA-4B8D-AC80-041455A4D262}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{856B2AE3-7179-4FBA-8306-B22B105478C7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A8D53514-FCBA-4F36-8A5E-78CE87E2BE4F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4DD07767-FD22-4CC7-9F5D-B274A46B241D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AD518CC5-4F6B-4701-B342-91A330CF1A8C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0BBBD93C-890E-4D70-9310-42986E146FD7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2509,7 +2509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94A2A26-BC7B-47BB-9A51-DB8CB826F872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4099ED2-B3B8-4733-9670-48CBD26CC2AC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3722,18 +3722,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B1817759-43FA-4801-B9FF-FD9BB37FA742}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9689288A-4589-48B1-B2C4-6F8E1FDE9207}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F158B6F8-9341-4466-BEC0-F13292C8ABD5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AAAA28EC-2257-4070-9A63-98AD0ADD0729}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E9BCF46F-A5DB-4EDD-86E9-4449250A7927}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{01F78A9E-83A0-4345-A944-1761CDCB9853}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B1347F68-7C31-4982-9364-E6AD42A105CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8FA48B7B-23E0-4221-942C-3982F6DA21FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D7ED2B24-6B6C-4DC8-88BE-19A825D4E77E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F34BF0DB-2A2B-4499-8BD6-11DC55391901}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2FE1E442-107B-46F3-9FD3-953C966A0904}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2E283C9A-1FEA-49A5-9671-982562E122F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D07B3AA8-1D63-4010-B4CB-5AA5CA66E39F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F32DB6B8-AA82-47FE-9CC8-256DE86B85A2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{175C307C-6310-446F-BFE5-7E08CEB1E85B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E74A873A-0209-422D-B476-1BD93C560410}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C15DAE6E-3743-488A-A4DD-E8881BC6EF9C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4E1B87B0-1639-40CD-A48F-17BE8C1CD11B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ABA74642-9E0B-41DD-956D-6DD091FD724B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E908CF46-54D1-4A0A-997C-24C15C0DAF18}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8363D20F-8023-4BD6-A634-E25AA15F8E11}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CE011BEB-905B-4818-B6D6-1F85BAA47659}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7DA0AD53-4CC0-41CC-A6B3-E97BD8BE353D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{36E8C287-F898-4978-9153-55B93DA37EB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3746,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA02D7B-B8B9-4683-8C67-912195B37A61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2F5FC5-5ABA-4AD0-A01C-453783A0CAD2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4955,18 +4955,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A00EDE78-5724-4005-A2FF-99B1A7BC10F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DDFD8930-A820-4342-A53E-D07FF7E805CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1388C5AE-6575-480A-BA90-23FC337C1D2D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9F24B83C-887E-4048-8A2A-39866DD022BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F912F2A3-D550-4AA2-A9EF-1234A6F8E6F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E9469E80-531B-4157-9C9C-0BCF3FF6991F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2750B09B-B2C2-49A0-A14E-BD01F3B012AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AAA084A9-0ADD-4EA4-9859-CC2B6FFA7580}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{43A4836A-5727-4CF3-B9EA-8889D4E6DD00}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9FF255C6-AD5F-4072-A07C-52C3217EA956}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D832D460-5701-4132-BB31-B21ED573DB0B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{47972D50-8B4E-4754-A5BC-E8F35554E6B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EB340B3D-B9A8-47BC-992C-97090D535C4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CFF33B2E-F400-4A8E-9125-BF186E0CDC15}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EE8556DA-C23D-4E0A-8AE1-49B35CCBC107}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BB5A2D36-A3F8-4124-B6B1-012C8C8CF9BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F302EC45-3BC3-40C9-92E6-DE5F0484B595}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{00D85E3C-27CB-4CEE-BBBB-47F9F25919D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{79AE257B-546B-47E8-8644-A3400969F7C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ED664DAB-15E8-432D-BC8B-0C2E6D71CC87}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0D7D301C-E63E-41F8-BD6B-3656CFBEA50D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E8E77449-3722-41DF-A47D-CCC81EC297DA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DCEB547B-7315-483E-8040-26A18B993262}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ABFF500D-F568-4BFB-8546-361D4AAC09B1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4979,7 +4979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D41656-0CB2-47EB-A96C-241B270984D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860C6701-0CC2-413D-9EB9-D279C129B548}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6178,18 +6178,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7B85C123-95FA-424E-8698-9E87FECBA02E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D5F8EBEF-3375-49EE-853D-E3AD22980F41}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{71A7551B-C866-4E2D-9031-C12EE8667C8E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FF6C4916-BA73-42CA-8C13-97999524D988}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CB440554-82BE-44DA-8176-5688AE252168}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EF4795AE-754D-4088-914F-9420A183D33E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B773EDC9-AFE9-49A5-B69F-DBACC771A4F1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E84F4AA6-AE5D-4955-8628-6FD9462E6041}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{38F41476-C6D1-41AB-9B6E-82C2BC028214}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EE06F7D6-7D3D-4AB2-AF2D-84D8B7F37FF4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{495322EE-6639-4037-B98E-EB097C2E0524}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5C29FEE5-B142-4F5B-80D3-87BCFDC6CBA3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E8045E96-C1A2-4D9C-859F-FD3017B175F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2DEC9599-6579-4B05-8116-28AB2100402E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3026D524-6409-4518-B090-87FC33716B4D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C71CA2EB-34C7-467C-A5EB-B83E507E565A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{47FC50B9-BBE8-404C-B91E-3C3BB8154E1B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{890489C2-7C22-41E1-B239-DE1AC74B0C92}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4AEA1543-0345-4E8D-A1C6-39845FAE69C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{288620FD-9547-4036-A053-D9A7A3442CC3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4B919AC9-338C-45A2-A640-85274F7D20FF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D266C1FA-CE39-4A65-8612-67E7B41B949B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B37BB380-30C6-43C1-B4AE-3E50F7BA6F1C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{30ACE4E4-D186-472F-8386-2B6747286A7A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6202,7 +6202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46604468-15BD-4100-AE55-810C56EDF8E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C90C35F-E3F0-4314-8ED6-3E059A088E3F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7451,18 +7451,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C1361FB6-9721-44F7-8CF8-26E414FB94AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AD052460-4476-41F0-908A-77B83A5850E7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9EC99ACD-84D0-43E2-BD7A-46F6F7FA8D85}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BAA33800-F11F-4E9F-91CE-644D2EEA904C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DDC40593-56C7-478A-8F43-D68EF1A90344}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D391E431-D6D2-4B34-889E-8AF96213AD39}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3FCEA686-E34F-488A-8727-5891C31433D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F0A984E6-CCB6-4D77-B022-661A6A968171}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{14880EDA-CCC6-4E84-95CC-09ACED522E0E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{48ED64DF-22C3-49CA-88F1-8C515752FB88}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C3C0BEF8-EAB3-486C-B520-EECC6B05862C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D539A068-1BEA-48D9-90B3-673E86B398D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{39CFA89E-4AAF-46F2-BAA8-0D62BDC9055C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{19321736-DDD7-4879-A0B4-AB87121F14D7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{86FE6793-75A2-4404-93E0-864D4219FABC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BD070601-4754-441E-8C7C-3741F4412DFD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{36B3D8A9-7F4B-4DCA-9E31-C4210B7252C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B3120800-6144-4391-B50E-CAAD2AC73413}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{80438FE2-A5EF-4889-801F-B51F4C5E1ADF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{20A67125-AF0F-49E2-BE98-1868C968D31E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CCB85B35-0C00-4573-955B-524BD74666F1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5F396A24-52E0-459F-84D1-DB4630483A37}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EA543DB5-0A1A-438A-8BE8-2990BE5DC7BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{18A0D480-F983-443F-9737-17FBA60AA170}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7475,7 +7475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8476DC-1EF5-4F39-8EB2-2ED755E3FDFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F1404B-0E15-4FA7-8BCC-8D9A5356D324}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8724,18 +8724,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C9828BD5-86DC-4259-8ADF-B0CA11A4B449}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{90071A6C-EAA0-440B-99F4-7FB861EAD49C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{294ECF0B-B750-4DBE-8514-591E1A12DB62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8ACD2E7C-CD77-4F6E-93C6-654E3C22F631}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8F117D1E-8E1E-4965-B4D8-CDA2E2BFD153}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DC12F7C4-8DB3-401C-A85F-5BC75B4485C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D9D5A2C6-4810-4DE3-83A3-8E7DC88DC5B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D17D5407-58CB-47E4-85CC-5C2F82055B54}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7C2EE5F9-46FC-42CC-9336-0389CED19446}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3B1A8A3B-E6B4-4ADD-8397-EE5C5E445540}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{88E4709A-4D12-4A7D-823D-8A39E7115E7B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{369ABE33-7F08-4E85-9BC2-F426F06F4420}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DCCF9405-32F0-49E8-A7FA-52BBD0038304}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{62B5BCB2-3410-4734-B7E9-150A84D24252}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{49476D9B-AB93-4A1C-8FC0-06814049629C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C442F074-0BE3-4B02-9649-5321F6449DA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1CF985BF-8284-4276-8680-00C42FB1D789}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DD32CD12-2472-4F18-84E6-C807E7204DE5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2CEAF2D5-F3DC-409D-ABF1-C46A89E6F41D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{442EEFDE-C669-4079-819A-36D4B99E3C97}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{135D336F-A30A-4CCC-A4D4-607C273C5A9D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{097C8ACD-014C-4A3D-95E0-4BB911CD91BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{038E44F0-C57E-4C52-AC41-FE041FCC5CDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{90050CF5-DAB0-4052-8202-663A1BADFB0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8748,7 +8748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1E8E80-220C-491C-AA8A-324B29241956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0C9E4B-D191-4591-9A72-B233BAC905BF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9997,18 +9997,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3DA6B326-375E-4F0C-B98C-65D6DA6D8534}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2A3ED463-6D99-4FAF-AE0C-76774BB0267C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2E64EF89-28C3-4269-991A-9830C0CA3381}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C41915D5-DEEA-4453-B522-2E4207B6B0B3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0E7EB6BF-E830-4554-9113-F53062D6264C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CDE32A5D-B432-4AA6-9C15-53A791A6210E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2477D711-FFAB-4FD6-A428-F0E809F29524}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C739E228-104C-47FF-834F-FC3B733C0A53}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F324B8D0-7ADE-4A0D-A797-9832DB711CF2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{19F05A9D-7E65-43F2-AE7B-7771825F3C1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F975608C-59D8-48A6-BC56-1A4270669551}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8521715D-EACD-45FF-B241-BBDC23CD88D1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A85A7484-BF26-48CF-9606-8525BF9E6394}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3FE59F2D-CB4A-4EDD-9FE6-4ECB04FDFC16}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D86C5D7B-1FB9-442A-AA7A-2C3DC91A077E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3B1277D6-B734-413F-B922-14A8492BD3AA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{17E6A19A-298C-4458-A97C-65F0BA490C5F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{84EE6A22-ED10-459B-8776-49FD0D0A174E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DF46BA81-7713-4F10-B19B-85E027879AFA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0997FC70-6ED0-4190-88C1-95FCC6865419}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FC0BA599-FA59-4B9B-A21F-9FBEA9A22BB7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C1115FB6-519F-4E14-B96F-386D7C494AF2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E716ABF9-5DA8-405B-BE26-7AB91AF91227}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D8D973C5-64F9-4FBF-A7FC-2788D59DC08B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10021,7 +10021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E436A509-7331-4C16-9C19-D5C10EC14325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC6C589-06E6-4CC8-B45E-5E9F63B03698}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11258,18 +11258,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DBB0568B-91F2-4F17-A5C2-8C077771D652}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C715DE52-E81C-4BCB-94C0-6BD49A3D9E6A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{87F96179-1C1E-4066-814A-3898026BFA9A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2ACFD61B-DD37-490E-AEE5-C72583962356}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4D17FDF5-9E87-426A-A5AC-39C875DBAD2F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{94601680-72CD-4471-BAAD-467D82C68EA1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9FE669DF-8C47-404B-915D-020729E607C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D912FF05-5685-41D0-9A62-838241FD2C9B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{16F8554B-AA7E-4263-88DB-B91831DDD663}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ECD71DC4-2D28-4250-8A34-2A82A6149593}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{935D7969-AD4C-468D-BF3F-40B3E30539C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A751BCB7-6D8D-456D-B940-1CA3A8AED1A4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B7298420-37B5-4E62-8492-EAC1955C9B84}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{689DA48B-9864-4CBF-8354-199428345088}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1EB85688-C88C-4F7B-BE7B-6B0BFB1431B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{06C49E85-05C0-4EF8-9DFD-BD0B906402CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C1E32532-56F2-45E3-887D-205986429EF5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E9693E7E-9B22-47C9-9357-8F8FFF522373}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0BA374D4-5179-4CB1-8C3A-48C5692A4CB1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{685D94D1-046C-4CD6-9756-C18F8B857E06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FE5A3114-9847-4888-9389-58CF08AFA1BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{390A1BAA-A206-4269-833E-34FFC5B8103B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C9822086-825D-4677-AB33-36B5057CD75E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{70D120C0-69B4-48DF-B3FD-4CF4BB738E5D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11282,7 +11282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7491DFC5-AD63-4C7A-A29D-47BDE6A714BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CB3D06-8803-4C5A-A64D-80E93C6A8D96}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12519,18 +12519,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9D046E3C-8660-4826-A453-9775A0BEDFF0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8C63E2B2-970B-49A6-B0DC-3FF9F879064B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5AA8733F-5C90-40EA-8068-940B2016A11E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0B877403-EFCC-4D4D-814F-4A624D9A568D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A5D7A59A-378C-4997-9C7A-428808A3A4C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{68DE823C-5E1A-4A2F-92EF-275F06D97015}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E4CA7B4E-092C-4BFE-A4B4-468B5A5B6E11}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D200C725-D11B-45F2-B370-C38B08E4AC47}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{26FE238E-687B-4268-AF8A-BBA0DC6AF325}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{280527F8-6A66-483B-984A-028617F0305A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1A9010E4-4F8D-4766-ABEE-B68311B823CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F3E1A391-AF3E-4ACD-A730-5676AA99A248}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{749EE0A4-A030-4A96-A1C1-0E893273228A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D1F4F52E-A4C2-4EB1-B5BE-AA7B8D6149D3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9260E248-96A5-4E0F-8078-66BC41C4D1AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BCB051DD-E496-4AB1-9BEE-AAB2105B9F2D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DECCFB9C-D13C-4607-9878-46876597F0CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B2EDE6E1-34BD-4CF8-8B91-C65AB9029F31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{30A12AF1-88B0-4EF9-A001-F80B2F7B6D2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{36577E62-E7B7-488D-91CD-DD7645CC20CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7CFC6EA0-F18D-4B6F-9CEB-08C8AC8B5C93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{514CFDBB-C3C7-4777-B158-34E3F53C3622}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{814790C9-8124-4EBC-9B20-3A872F9F1A91}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B89085FB-5CC4-45DB-89D3-DE43B1143D77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12543,7 +12543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EBF634-3962-48FA-A0FE-D5922A17E965}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75041F71-018D-4D35-B2EA-5E7DEF45499E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13772,18 +13772,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2FAABBE5-B9F0-463E-8B82-0B25F86D643D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{033920B2-FB2A-48BC-8AC2-BD6C59246F36}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3C5A7447-C911-49CF-B0CB-85BC9346479A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B7D08855-2AB4-4527-AFA2-4FC61897BE72}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B6F86DF9-9C6C-4E2A-8D6C-5B55C530BBBE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D6CE852D-28BE-427B-A399-EAF87019447D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C87BFAC7-406A-45D9-AADB-86C36216B572}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{00FAD26A-2D65-42C1-BC50-869D5D2119AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9EC65140-5AE2-4629-9926-CF6D0445E677}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{090D5CDB-1017-4C7B-B4E5-8FB9D344069E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DF4975FB-5912-40A3-BB81-129899437694}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{84ACBA79-E990-43CF-9D44-0D2B71B94D15}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7C2C4195-3A02-4CC3-AD3E-671DB9E13621}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0CBC91EE-52B5-4347-A30E-665E86EEE400}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E7D53AF0-3DD3-4401-BD0E-1DF36B9F937A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EA154835-1202-4D9A-8EBB-CB9FE910DD2C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{54AB9B37-8505-486B-B698-67494A8D5671}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{536F3FC4-3AEE-4BFC-9846-8F77ADF0D6B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{36F75F89-F3FA-437E-A39D-B8741F92D97F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E561966F-C851-4ABB-842D-67E4C2164CDE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EF542F0D-50B9-4ACE-B81B-6FA15CC65711}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9345274C-5D62-4921-A846-FA676CB305D7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9B1AD7CA-D54B-4D98-BAA4-8587FFF7B8FC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{00E9ABA7-A56C-4E67-9B26-280A5CF6C7C0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13796,7 +13796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5D715D-A411-4004-8CE3-F3D128744189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9147E1-3A86-401C-90C8-605D4B41D71B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15025,18 +15025,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{22BC7847-4F6D-471A-BEE0-2DF125AE9E9C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{49559A35-4380-4319-A1D8-77A1EC131895}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{39AE9C83-50C2-4445-9453-1CF019E00A62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CD130800-657E-4A54-9E8B-93D60A66111D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{754D10E1-D445-442A-B3D2-6E072B24DE95}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1E2C861C-339B-4E3C-92B9-75FAE6715AE1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3C68A9ED-BE2D-487E-81F8-DD3BAD075BAD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B4FFAB13-887E-4535-9F17-7C9F90D42723}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CEEB629E-4FC3-461E-A938-0C15BD16C4FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7EA65D70-075E-442F-BEDC-7B55D4EC51B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3AFEE9ED-7BF5-4259-9A37-55261EA93AB1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2E32B56D-BDDE-4746-AA18-EAD9143D68B7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{28BADA43-F075-4B37-8450-BC142AABB524}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5AFE4CA4-B647-46A8-B861-BC2D3CC5E1F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2668E506-9C54-44DA-A804-72DAC307B4EB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1BA92640-D778-4D09-A5C0-883EE49D4050}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{66AB27A1-1778-44D0-AD12-639084718E5A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{831D875F-F32A-4773-AD6A-2B66364E5EB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{13DE36D2-B928-4C00-8629-894036302943}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{39FAECE6-35C2-4FDD-A331-2E7C793680ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{091416C2-802F-4090-8964-B14688EFDF5A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2D8DF8A7-7535-4734-83B2-187F8486A6FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0ED6039A-44BC-406E-B1D0-E359B98C1458}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8A2979AC-48A4-41B7-A514-6E370D2CDCA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15049,7 +15049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D1BE2A-1903-458C-BFC2-694D3DA9044E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976ADD3D-2CD0-45FA-AF75-9D3E116A18A2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16270,18 +16270,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0F826893-3BBE-4F55-BF43-3A12603E67BD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7472D8A0-CA93-4DD8-8C8F-689FAF42C215}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{60FAF604-2B41-460B-A11D-D82DDB9AC50E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{31DA846F-9727-4117-91A0-8D12BB5C06BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{949A9314-51DE-4E96-8D43-9F643BD5F27E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{38CAB0F2-C498-47B0-842F-8B2FE986F31E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0F53342E-3464-4316-86AD-2696C1C02BB5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FFEC8A33-3175-47F7-B8B4-6E9AA02386A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3C724E23-7304-4686-861F-0CB883923533}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{861403F2-EBD8-4BB7-84F0-E43DB9AA8B9F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{16652D21-5483-42C6-9551-21B20334D4B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{48820692-11F7-49B2-9742-F0E72ADA6474}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2AB0AEDD-50A2-42A0-8D7A-CE433ABA6B4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8BC84FE5-077A-4692-B82E-2280F6789D94}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2DDB8A91-4D61-417F-8181-A3B5D08D5C9A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{274D1324-A01E-4BDB-A166-50DC8EEF48B0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4F2559AE-A6F7-4DFF-A7C3-0D0DF6341CE2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{20D8096B-0651-4F8E-B8CB-DF7C2846BDF8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{918BA336-F6A9-4A9D-9FF9-D05F24956E9B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F2D25B3F-4F50-4298-AA2A-5F4F493E5B8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D84958B6-266D-4376-86E9-8836EE9E2975}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{956928D4-52D5-4C3C-B07D-78CEA6218A5C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8A15E749-BBAE-4E86-AD40-00C3083BCBAA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{64F520E8-CB43-4C66-A8B2-AB34C91ED035}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
